--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Robo1</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H2">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I2">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J2">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.105838170621644</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N2">
-        <v>0.105838170621644</v>
+        <v>0.43166</v>
       </c>
       <c r="O2">
-        <v>0.004458236745275686</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P2">
-        <v>0.004458236745275686</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q2">
-        <v>0.009998911076363004</v>
+        <v>0.01440391865333333</v>
       </c>
       <c r="R2">
-        <v>0.009998911076363004</v>
+        <v>0.12963526788</v>
       </c>
       <c r="S2">
-        <v>6.541280877827938E-05</v>
+        <v>7.401846158743853E-05</v>
       </c>
       <c r="T2">
-        <v>6.541280877827938E-05</v>
+        <v>8.175739280829905E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H3">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I3">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J3">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3633245173465</v>
+        <v>21.99231</v>
       </c>
       <c r="N3">
-        <v>20.3633245173465</v>
+        <v>65.97693</v>
       </c>
       <c r="O3">
-        <v>0.8577672978093019</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P3">
-        <v>0.8577672978093019</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q3">
-        <v>1.923796205774853</v>
+        <v>2.20156218486</v>
       </c>
       <c r="R3">
-        <v>1.923796205774853</v>
+        <v>19.81405966374</v>
       </c>
       <c r="S3">
-        <v>0.01258546179435602</v>
+        <v>0.01131332729199397</v>
       </c>
       <c r="T3">
-        <v>0.01258546179435602</v>
+        <v>0.01249618167607758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H4">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I4">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J4">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.27075438435845</v>
+        <v>0.015519</v>
       </c>
       <c r="N4">
-        <v>3.27075438435845</v>
+        <v>0.046557</v>
       </c>
       <c r="O4">
-        <v>0.1377744654454222</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P4">
-        <v>0.1377744654454222</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q4">
-        <v>0.3089998820816407</v>
+        <v>0.001553545014</v>
       </c>
       <c r="R4">
-        <v>0.3089998820816407</v>
+        <v>0.013981905126</v>
       </c>
       <c r="S4">
-        <v>0.002021475143118218</v>
+        <v>7.983314451481199E-06</v>
       </c>
       <c r="T4">
-        <v>0.002021475143118218</v>
+        <v>8.818002448630819E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.3126462330436</v>
+        <v>0.100106</v>
       </c>
       <c r="H5">
-        <v>5.3126462330436</v>
+        <v>0.300318</v>
       </c>
       <c r="I5">
-        <v>0.8250878401442793</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J5">
-        <v>0.8250878401442793</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.105838170621644</v>
+        <v>3.876561</v>
       </c>
       <c r="N5">
-        <v>0.105838170621644</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O5">
-        <v>0.004458236745275686</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P5">
-        <v>0.004458236745275686</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q5">
-        <v>0.5622807584653028</v>
+        <v>0.3880670154659999</v>
       </c>
       <c r="R5">
-        <v>0.5622807584653028</v>
+        <v>2.328402092795999</v>
       </c>
       <c r="S5">
-        <v>0.003678436927011377</v>
+        <v>0.001994188121228714</v>
       </c>
       <c r="T5">
-        <v>0.003678436927011377</v>
+        <v>0.001468459066961648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H6">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I6">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J6">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.3633245173465</v>
+        <v>0.1438866666666667</v>
       </c>
       <c r="N6">
-        <v>20.3633245173465</v>
+        <v>0.43166</v>
       </c>
       <c r="O6">
-        <v>0.8577672978093019</v>
+        <v>0.005528090411415381</v>
       </c>
       <c r="P6">
-        <v>0.8577672978093019</v>
+        <v>0.005816871971504955</v>
       </c>
       <c r="Q6">
-        <v>108.1831392893253</v>
+        <v>0.9065607731044445</v>
       </c>
       <c r="R6">
-        <v>108.1831392893253</v>
+        <v>8.159046957940001</v>
       </c>
       <c r="S6">
-        <v>0.7077333670958718</v>
+        <v>0.004658609603101389</v>
       </c>
       <c r="T6">
-        <v>0.7077333670958718</v>
+        <v>0.005145686185484188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.3126462330436</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H7">
-        <v>5.3126462330436</v>
+        <v>18.901559</v>
       </c>
       <c r="I7">
-        <v>0.8250878401442793</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J7">
-        <v>0.8250878401442793</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.27075438435845</v>
+        <v>21.99231</v>
       </c>
       <c r="N7">
-        <v>3.27075438435845</v>
+        <v>65.97693</v>
       </c>
       <c r="O7">
-        <v>0.1377744654454222</v>
+        <v>0.8449391514331273</v>
       </c>
       <c r="P7">
-        <v>0.1377744654454222</v>
+        <v>0.889077873518381</v>
       </c>
       <c r="Q7">
-        <v>17.37636095927276</v>
+        <v>138.56298167043</v>
       </c>
       <c r="R7">
-        <v>17.37636095927276</v>
+        <v>1247.06683503387</v>
       </c>
       <c r="S7">
-        <v>0.1136760361213961</v>
+        <v>0.7120436447230414</v>
       </c>
       <c r="T7">
-        <v>0.1136760361213961</v>
+        <v>0.7864907039374907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.03176580982314</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H8">
-        <v>1.03176580982314</v>
+        <v>18.901559</v>
       </c>
       <c r="I8">
-        <v>0.1602398101094681</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J8">
-        <v>0.1602398101094681</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.105838170621644</v>
+        <v>0.015519</v>
       </c>
       <c r="N8">
-        <v>0.105838170621644</v>
+        <v>0.046557</v>
       </c>
       <c r="O8">
-        <v>0.004458236745275686</v>
+        <v>0.0005962361703291152</v>
       </c>
       <c r="P8">
-        <v>0.004458236745275686</v>
+        <v>0.0006273829133516105</v>
       </c>
       <c r="Q8">
-        <v>0.1092002058216402</v>
+        <v>0.09777776470699999</v>
       </c>
       <c r="R8">
-        <v>0.1092002058216402</v>
+        <v>0.879999882363</v>
       </c>
       <c r="S8">
-        <v>0.0007143870094860292</v>
+        <v>0.0005024576919139863</v>
       </c>
       <c r="T8">
-        <v>0.0007143870094860292</v>
+        <v>0.0005549916872946007</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.03176580982314</v>
+        <v>6.300519666666666</v>
       </c>
       <c r="H9">
-        <v>1.03176580982314</v>
+        <v>18.901559</v>
       </c>
       <c r="I9">
-        <v>0.1602398101094681</v>
+        <v>0.8427158849431019</v>
       </c>
       <c r="J9">
-        <v>0.1602398101094681</v>
+        <v>0.8846139661817043</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.3633245173465</v>
+        <v>3.876561</v>
       </c>
       <c r="N9">
-        <v>20.3633245173465</v>
+        <v>7.753121999999999</v>
       </c>
       <c r="O9">
-        <v>0.8577672978093019</v>
+        <v>0.1489365219851282</v>
       </c>
       <c r="P9">
-        <v>0.8577672978093019</v>
+        <v>0.1044778715967623</v>
       </c>
       <c r="Q9">
-        <v>21.01018201133141</v>
+        <v>24.424348819533</v>
       </c>
       <c r="R9">
-        <v>21.01018201133141</v>
+        <v>146.546092917198</v>
       </c>
       <c r="S9">
-        <v>0.1374484689190741</v>
+        <v>0.1255111729250451</v>
       </c>
       <c r="T9">
-        <v>0.1374484689190741</v>
+        <v>0.09242258437143476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.04049</v>
+      </c>
+      <c r="I10">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J10">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.43166</v>
+      </c>
+      <c r="O10">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P10">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q10">
+        <v>0.001941990377777778</v>
+      </c>
+      <c r="R10">
+        <v>0.0174779134</v>
+      </c>
+      <c r="S10">
+        <v>9.979446818623544E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.10228385738052E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.04049</v>
+      </c>
+      <c r="I11">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J11">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.99231</v>
+      </c>
+      <c r="N11">
+        <v>65.97693</v>
+      </c>
+      <c r="O11">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P11">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q11">
+        <v>0.2968228773</v>
+      </c>
+      <c r="R11">
+        <v>2.6714058957</v>
+      </c>
+      <c r="S11">
+        <v>0.001525305249944512</v>
+      </c>
+      <c r="T11">
+        <v>0.001684782117836364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.04049</v>
+      </c>
+      <c r="I12">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J12">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.015519</v>
+      </c>
+      <c r="N12">
+        <v>0.046557</v>
+      </c>
+      <c r="O12">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P12">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q12">
+        <v>0.00020945477</v>
+      </c>
+      <c r="R12">
+        <v>0.00188509293</v>
+      </c>
+      <c r="S12">
+        <v>1.076340419623445E-06</v>
+      </c>
+      <c r="T12">
+        <v>1.188876188390512E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.04049</v>
+      </c>
+      <c r="I13">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J13">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.876561</v>
+      </c>
+      <c r="N13">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P13">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q13">
+        <v>0.05232065162999999</v>
+      </c>
+      <c r="R13">
+        <v>0.31392390978</v>
+      </c>
+      <c r="S13">
+        <v>0.000268863927665177</v>
+      </c>
+      <c r="T13">
+        <v>0.0001979831632512108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="H10">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="I10">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="J10">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.27075438435845</v>
-      </c>
-      <c r="N10">
-        <v>3.27075438435845</v>
-      </c>
-      <c r="O10">
-        <v>0.1377744654454222</v>
-      </c>
-      <c r="P10">
-        <v>0.1377744654454222</v>
-      </c>
-      <c r="Q10">
-        <v>3.374652546110182</v>
-      </c>
-      <c r="R10">
-        <v>3.374652546110182</v>
-      </c>
-      <c r="S10">
-        <v>0.02207695418090794</v>
-      </c>
-      <c r="T10">
-        <v>0.02207695418090794</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.0623235</v>
+      </c>
+      <c r="H14">
+        <v>2.124647</v>
+      </c>
+      <c r="I14">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J14">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1438866666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.43166</v>
+      </c>
+      <c r="O14">
+        <v>0.005528090411415381</v>
+      </c>
+      <c r="P14">
+        <v>0.005816871971504955</v>
+      </c>
+      <c r="Q14">
+        <v>0.1528541873366667</v>
+      </c>
+      <c r="R14">
+        <v>0.9171251240200001</v>
+      </c>
+      <c r="S14">
+        <v>0.0007854828999079301</v>
+      </c>
+      <c r="T14">
+        <v>0.0005784055546386636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.0623235</v>
+      </c>
+      <c r="H15">
+        <v>2.124647</v>
+      </c>
+      <c r="I15">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J15">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.99231</v>
+      </c>
+      <c r="N15">
+        <v>65.97693</v>
+      </c>
+      <c r="O15">
+        <v>0.8449391514331273</v>
+      </c>
+      <c r="P15">
+        <v>0.889077873518381</v>
+      </c>
+      <c r="Q15">
+        <v>23.362947732285</v>
+      </c>
+      <c r="R15">
+        <v>140.17768639371</v>
+      </c>
+      <c r="S15">
+        <v>0.1200568741681474</v>
+      </c>
+      <c r="T15">
+        <v>0.0884062057869765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.0623235</v>
+      </c>
+      <c r="H16">
+        <v>2.124647</v>
+      </c>
+      <c r="I16">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J16">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.015519</v>
+      </c>
+      <c r="N16">
+        <v>0.046557</v>
+      </c>
+      <c r="O16">
+        <v>0.0005962361703291152</v>
+      </c>
+      <c r="P16">
+        <v>0.0006273829133516105</v>
+      </c>
+      <c r="Q16">
+        <v>0.0164861983965</v>
+      </c>
+      <c r="R16">
+        <v>0.098917190379</v>
+      </c>
+      <c r="S16">
+        <v>8.471882354402422E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.238434741998855E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0623235</v>
+      </c>
+      <c r="H17">
+        <v>2.124647</v>
+      </c>
+      <c r="I17">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J17">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.876561</v>
+      </c>
+      <c r="N17">
+        <v>7.753121999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.1489365219851282</v>
+      </c>
+      <c r="P17">
+        <v>0.1044778715967623</v>
+      </c>
+      <c r="Q17">
+        <v>4.118161849483499</v>
+      </c>
+      <c r="R17">
+        <v>16.472647397934</v>
+      </c>
+      <c r="S17">
+        <v>0.02116229701118925</v>
+      </c>
+      <c r="T17">
+        <v>0.01038884499511473</v>
       </c>
     </row>
   </sheetData>
